--- a/biology/Zoologie/Dindon_bleu_de_Suède/Dindon_bleu_de_Suède.xlsx
+++ b/biology/Zoologie/Dindon_bleu_de_Suède/Dindon_bleu_de_Suède.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dindon_bleu_de_Su%C3%A8de</t>
+          <t>Dindon_bleu_de_Suède</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le dindon bleu de Suède (en anglais : Blue turkey[1]) est un petit dindon au plumage gris bleu (deux nuances existent : le clair régulier et le foncé) et aux tarses rougeâtres.
+Le dindon bleu de Suède (en anglais : Blue turkey) est un petit dindon au plumage gris bleu (deux nuances existent : le clair régulier et le foncé) et aux tarses rougeâtres.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dindon_bleu_de_Su%C3%A8de</t>
+          <t>Dindon_bleu_de_Suède</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dindon bleu est un dindon « à la mode » en France. On ne sait s'il est originaire de Suède, car ce coloris est signalé depuis longtemps en Europe continentale et l'ajout de cette dénomination faisait plutôt référence à un gris-bleu dit de Suède (comme l'on dit bleu de Prusse), quelques points noirs épars sont tolérés ; beaucoup d'éleveurs préfèrent le bleu foncé. Les tarses sont de couleur rougeâtre. La masse du dindon peut varier entre 6 et 8 kg, et celle de la dinde entre 4 et 5 kg[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dindon bleu est un dindon « à la mode » en France. On ne sait s'il est originaire de Suède, car ce coloris est signalé depuis longtemps en Europe continentale et l'ajout de cette dénomination faisait plutôt référence à un gris-bleu dit de Suède (comme l'on dit bleu de Prusse), quelques points noirs épars sont tolérés ; beaucoup d'éleveurs préfèrent le bleu foncé. Les tarses sont de couleur rougeâtre. La masse du dindon peut varier entre 6 et 8 kg, et celle de la dinde entre 4 et 5 kg.
 Aux États-Unis, il existe un dindon ardoise (Slate) très semblable à ce dindon bleu.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dindon_bleu_de_Su%C3%A8de</t>
+          <t>Dindon_bleu_de_Suède</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>dinde : 4 à 5 kg
 dindon : 6 à 8 kg</t>
